--- a/Data/3_Product_categories.xlsx
+++ b/Data/3_Product_categories.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27612"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/bertiner_ntnu_no/Documents/2_Env_Eng/IOA_project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/bertiner_ntnu_no/Documents/2_Env_Eng/IOA_project/Code/TEP4222_Project/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="570" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CC29AB9-EA37-44C6-8634-B3EC3E47E639}"/>
+  <xr:revisionPtr revIDLastSave="592" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E480E9F7-11DE-4751-A9C6-781FA1B95C7A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="112">
   <si>
     <t>CP01</t>
   </si>
@@ -236,7 +236,7 @@
     <t>Vegetables, fruit, nuts</t>
   </si>
   <si>
-    <t>Electricity by nuclear</t>
+    <t>Electricity by wind</t>
   </si>
   <si>
     <t>Retail  trade services, except of motor vehicles and motorcycles; repair services of personal and household goods (52)</t>
@@ -251,7 +251,7 @@
     <t>Wheat</t>
   </si>
   <si>
-    <t>Electricity by wind</t>
+    <t>Transmission and distribution of electricity</t>
   </si>
   <si>
     <t>Machinery and equipment n.e.c. (29)</t>
@@ -266,7 +266,7 @@
     <t>products of Vegetable oils and fats</t>
   </si>
   <si>
-    <t>Transmission and distribution of electricity</t>
+    <t>Steam and hot water supply services</t>
   </si>
   <si>
     <t>Petroleum products</t>
@@ -278,7 +278,7 @@
     <t>Crops nec</t>
   </si>
   <si>
-    <t>Steam and hot water supply services</t>
+    <t>Natural gas and services related to natural gas extraction, excluding surveying</t>
   </si>
   <si>
     <t>Mining &amp; Quarrying</t>
@@ -287,7 +287,7 @@
     <t>Fish and other fishing products; services incidental of fishing (05)</t>
   </si>
   <si>
-    <t>Natural gas and services related to natural gas extraction, excluding surveying</t>
+    <t>Distribution services of gaseous fuels through mains</t>
   </si>
   <si>
     <t>Landfill</t>
@@ -296,7 +296,7 @@
     <t>Oil seeds</t>
   </si>
   <si>
-    <t>Distribution services of gaseous fuels through mains</t>
+    <t>Produced gas (Gas works, Blast ovens, etc.)</t>
   </si>
   <si>
     <t>Foundry work services</t>
@@ -305,7 +305,7 @@
     <t>Collected and purified water, distribution services of water (41)</t>
   </si>
   <si>
-    <t>Produced gas (Gas works, Blast ovens, etc.)</t>
+    <t>Waste for treatment: biogasification and land application</t>
   </si>
   <si>
     <t>Chemicals nec</t>
@@ -314,19 +314,16 @@
     <t>Cattle</t>
   </si>
   <si>
-    <t>Waste for treatment: biogasification and land application</t>
+    <t>Charcoal</t>
   </si>
   <si>
     <t>Coal, peat</t>
   </si>
   <si>
-    <t>Charcoal</t>
+    <t>Waste incineration</t>
   </si>
   <si>
     <t>Coke and Tar</t>
-  </si>
-  <si>
-    <t>Waste incineration</t>
   </si>
   <si>
     <t>Pulp</t>
@@ -381,7 +378,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -452,7 +449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -460,6 +457,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -794,29 +793,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2B5A38-EE05-4B87-B85E-53A18DBAFCC6}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G17" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" customWidth="1"/>
-    <col min="4" max="4" width="47.42578125" customWidth="1"/>
-    <col min="5" max="5" width="60.7109375" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" customWidth="1"/>
-    <col min="7" max="7" width="37" customWidth="1"/>
+    <col min="1" max="1" width="53.08984375" customWidth="1"/>
+    <col min="2" max="2" width="39.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.81640625" customWidth="1"/>
+    <col min="4" max="4" width="63.453125" customWidth="1"/>
+    <col min="5" max="5" width="94.6328125" customWidth="1"/>
+    <col min="6" max="6" width="34.7265625" customWidth="1"/>
+    <col min="7" max="7" width="104.36328125" customWidth="1"/>
     <col min="8" max="8" width="31" customWidth="1"/>
-    <col min="9" max="9" width="35.85546875" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" customWidth="1"/>
-    <col min="11" max="11" width="24.42578125" customWidth="1"/>
-    <col min="12" max="12" width="103.7109375" customWidth="1"/>
+    <col min="9" max="9" width="57.453125" customWidth="1"/>
+    <col min="10" max="10" width="20.81640625" customWidth="1"/>
+    <col min="11" max="11" width="24.453125" customWidth="1"/>
+    <col min="12" max="12" width="91" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -854,7 +853,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="3" customFormat="1">
+    <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -892,7 +891,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -930,7 +929,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -953,7 +952,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -973,7 +972,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -993,7 +992,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -1010,10 +1009,10 @@
         <v>58</v>
       </c>
       <c r="L7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -1026,11 +1025,14 @@
       <c r="G8" t="s">
         <v>63</v>
       </c>
-      <c r="L8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="I8" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -1043,11 +1045,14 @@
       <c r="G9" t="s">
         <v>68</v>
       </c>
+      <c r="I9" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="L9" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -1061,10 +1066,10 @@
         <v>73</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>75</v>
       </c>
@@ -1075,32 +1080,32 @@
         <v>77</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>79</v>
       </c>
       <c r="D12" t="s">
         <v>80</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="L12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>82</v>
       </c>
       <c r="D13" t="s">
         <v>83</v>
       </c>
-      <c r="L13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="L13" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>85</v>
       </c>
@@ -1108,10 +1113,10 @@
         <v>86</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>88</v>
       </c>
@@ -1119,109 +1124,96 @@
         <v>89</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>91</v>
       </c>
       <c r="D16" t="s">
         <v>92</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="4:12">
+      <c r="L16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D17" t="s">
         <v>94</v>
       </c>
-      <c r="L17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="4:12">
-      <c r="D18" t="s">
+      <c r="L17" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="L18" s="1" t="s">
+    </row>
+    <row r="18" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="L18" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="4:12">
-      <c r="L19" t="s">
+    <row r="19" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="L19" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="4:12">
+    <row r="20" spans="4:12" x14ac:dyDescent="0.35">
       <c r="L20" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="4:12">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.35">
       <c r="L21" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="4:12">
+    <row r="22" spans="4:12" x14ac:dyDescent="0.35">
       <c r="L22" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="4:12">
+    <row r="23" spans="4:12" x14ac:dyDescent="0.35">
       <c r="L23" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="4:12">
+    <row r="24" spans="4:12" x14ac:dyDescent="0.35">
       <c r="L24" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="4:12">
+    <row r="25" spans="4:12" x14ac:dyDescent="0.35">
       <c r="L25" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="4:12">
-      <c r="L26" s="1" t="s">
+    <row r="26" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="L26" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="4:12">
-      <c r="L27" t="s">
+    <row r="27" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="L27" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="4:12">
-      <c r="L28" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="4:12">
-      <c r="L29" s="1" t="s">
+    <row r="28" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="L28" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="4:12">
+    <row r="29" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="L29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="4:12" x14ac:dyDescent="0.35">
       <c r="L30" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="4:12">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="4:12" x14ac:dyDescent="0.35">
       <c r="L31" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="4:12">
-      <c r="L32" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="12:12">
-      <c r="L33" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>
